--- a/BackTest/2019-11-12 BackTest DAD.xlsx
+++ b/BackTest/2019-11-12 BackTest DAD.xlsx
@@ -995,7 +995,9 @@
       <c r="J12" t="n">
         <v>63</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20.63492063492063</v>
+      </c>
       <c r="L12" t="n">
         <v>324.6</v>
       </c>
@@ -1052,7 +1054,9 @@
       <c r="J13" t="n">
         <v>73</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-2.777777777777778</v>
+      </c>
       <c r="L13" t="n">
         <v>324.3</v>
       </c>
@@ -1109,7 +1113,9 @@
       <c r="J14" t="n">
         <v>74</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>324</v>
       </c>
@@ -1164,7 +1170,9 @@
       <c r="J15" t="n">
         <v>75</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-8.333333333333332</v>
+      </c>
       <c r="L15" t="n">
         <v>324.9</v>
       </c>
@@ -1219,7 +1227,9 @@
       <c r="J16" t="n">
         <v>79</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L16" t="n">
         <v>324.1</v>
       </c>
@@ -1272,7 +1282,9 @@
       <c r="J17" t="n">
         <v>79</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L17" t="n">
         <v>323.2</v>
       </c>
@@ -1329,7 +1341,9 @@
       <c r="J18" t="n">
         <v>85</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-5.263157894736842</v>
+      </c>
       <c r="L18" t="n">
         <v>322.9</v>
       </c>
@@ -1386,7 +1400,9 @@
       <c r="J19" t="n">
         <v>91</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>8</v>
+      </c>
       <c r="L19" t="n">
         <v>322</v>
       </c>
@@ -1443,7 +1459,9 @@
       <c r="J20" t="n">
         <v>93</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-21.95121951219512</v>
+      </c>
       <c r="L20" t="n">
         <v>322.2</v>
       </c>
@@ -1500,7 +1518,9 @@
       <c r="J21" t="n">
         <v>93</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L21" t="n">
         <v>321.3</v>
       </c>
@@ -1559,7 +1579,9 @@
       <c r="J22" t="n">
         <v>93</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-40</v>
+      </c>
       <c r="L22" t="n">
         <v>321.5</v>
       </c>
@@ -1619,7 +1641,7 @@
         <v>93</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.82795698924731</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L23" t="n">
         <v>320.7</v>
@@ -1678,7 +1700,7 @@
         <v>95</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.51063829787234</v>
+        <v>-20</v>
       </c>
       <c r="L24" t="n">
         <v>320.2</v>
